--- a/tests/results/build_time_data.xlsx
+++ b/tests/results/build_time_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21888" windowHeight="9780"/>
+    <workbookView windowWidth="17472" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,14 +41,14 @@
     </textPr>
   </connection>
   <connection id="2" name="build_test_classic1" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/home/SYC/Desktop/code/VectorPro/result/build_test_classic.txt" tab="0" space="1" consecutive="1">
+    <textPr sourceFile="/home/SYC/Desktop/code/VectorPro/tests/results/build_test_classic.txt" tab="0" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="3" name="build_test_pro" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/home/SYC/Desktop/code/VectorPro/result/build_test_pro.txt" tab="0" space="1" consecutive="1">
+    <textPr sourceFile="/home/SYC/Desktop/code/VectorPro/tests/results/build_test_pro.txt" tab="0" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,7 +986,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1239,21 +1239,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.7777777777778" style="1"/>
-    <col min="2" max="2" width="10.7314814814815" customWidth="1"/>
-    <col min="3" max="3" width="13.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.9351851851852" customWidth="1"/>
-    <col min="5" max="5" width="14.4814814814815" customWidth="1"/>
-    <col min="6" max="6" width="10.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.7962962962963" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1532,6 +1532,222 @@
         <v>1909</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <f>A12+100</f>
+        <v>1101</v>
+      </c>
+      <c r="B13">
+        <v>11840</v>
+      </c>
+      <c r="C13">
+        <v>694585</v>
+      </c>
+      <c r="D13">
+        <v>6799290</v>
+      </c>
+      <c r="E13">
+        <v>135</v>
+      </c>
+      <c r="F13">
+        <v>564</v>
+      </c>
+      <c r="G13">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <f t="shared" ref="A14:A21" si="0">A13+100</f>
+        <v>1201</v>
+      </c>
+      <c r="B14">
+        <v>11979</v>
+      </c>
+      <c r="C14">
+        <v>774652</v>
+      </c>
+      <c r="D14">
+        <v>7548900</v>
+      </c>
+      <c r="E14">
+        <v>125</v>
+      </c>
+      <c r="F14">
+        <v>846</v>
+      </c>
+      <c r="G14">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>1301</v>
+      </c>
+      <c r="B15">
+        <v>30048</v>
+      </c>
+      <c r="C15">
+        <v>850954</v>
+      </c>
+      <c r="D15">
+        <v>8214628</v>
+      </c>
+      <c r="E15">
+        <v>242</v>
+      </c>
+      <c r="F15">
+        <v>1022</v>
+      </c>
+      <c r="G15">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>1401</v>
+      </c>
+      <c r="B16">
+        <v>13952</v>
+      </c>
+      <c r="C16">
+        <v>886335</v>
+      </c>
+      <c r="D16">
+        <v>9228848</v>
+      </c>
+      <c r="E16">
+        <v>129</v>
+      </c>
+      <c r="F16">
+        <v>711</v>
+      </c>
+      <c r="G16">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>1501</v>
+      </c>
+      <c r="B17">
+        <v>36789</v>
+      </c>
+      <c r="C17">
+        <v>1033247</v>
+      </c>
+      <c r="D17">
+        <v>9928948</v>
+      </c>
+      <c r="E17">
+        <v>396</v>
+      </c>
+      <c r="F17">
+        <v>1132</v>
+      </c>
+      <c r="G17">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>1601</v>
+      </c>
+      <c r="B18">
+        <v>28709</v>
+      </c>
+      <c r="C18">
+        <v>1098580</v>
+      </c>
+      <c r="D18">
+        <v>10589846</v>
+      </c>
+      <c r="E18">
+        <v>213</v>
+      </c>
+      <c r="F18">
+        <v>1193</v>
+      </c>
+      <c r="G18">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>1701</v>
+      </c>
+      <c r="B19">
+        <v>29908</v>
+      </c>
+      <c r="C19">
+        <v>1072609</v>
+      </c>
+      <c r="D19">
+        <v>10540785</v>
+      </c>
+      <c r="E19">
+        <v>279</v>
+      </c>
+      <c r="F19">
+        <v>548</v>
+      </c>
+      <c r="G19">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>1801</v>
+      </c>
+      <c r="B20">
+        <v>17832</v>
+      </c>
+      <c r="C20">
+        <v>1148502</v>
+      </c>
+      <c r="D20">
+        <v>11486787</v>
+      </c>
+      <c r="E20">
+        <v>158</v>
+      </c>
+      <c r="F20">
+        <v>703</v>
+      </c>
+      <c r="G20">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>1901</v>
+      </c>
+      <c r="B21">
+        <v>18823</v>
+      </c>
+      <c r="C21">
+        <v>1221471</v>
+      </c>
+      <c r="D21">
+        <v>12012784</v>
+      </c>
+      <c r="E21">
+        <v>182</v>
+      </c>
+      <c r="F21">
+        <v>700</v>
+      </c>
+      <c r="G21">
+        <v>1824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
